--- a/biology/Botanique/Phrymaceae/Phrymaceae.xlsx
+++ b/biology/Botanique/Phrymaceae/Phrymaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phrymacées (Phrymaceae) sont une famille des plantes dicotylédones, originaires de l'est de l'Amérique du Nord et d'Asie (Japon, Népal, Inde et Pakistan occidental).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Phryma dont l’origine est inconnue, mais pourrait être apparenté avec le racine grecque  φρύνος / phrynos, crapaud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Phryma dont l’origine est inconnue, mais pourrait être apparenté avec le racine grecque  φρύνος / phrynos, crapaud.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] avait été précédemment placé  Phryma  dans les Verbenaceae. Les recherches phylogénétiques ont révélé que plusieurs genres, traditionnellement inclus dans Scrophulariaceae, étaient en fait plus étroitement liés au genre Phryma qu'au genre Scrophularia.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) avait été précédemment placé  Phryma  dans les Verbenaceae. Les recherches phylogénétiques ont révélé que plusieurs genres, traditionnellement inclus dans Scrophulariaceae, étaient en fait plus étroitement liés au genre Phryma qu'au genre Scrophularia.
 Pendant une courte période les genres Mazus et Lancea ont été inclus dans les Phrymaceae.
-En classification phylogénétique APG II (2003)[3] la circonscription  des Phrymacées est incertaine : le genre le plus connu est Mimulus.
-Les Phrymacées font partie d'un clade de cinq familles : Mazaceae, Phrymaceae, Paulowniaceae, Orobanchaceae, Lamiaceae, dont deux, Mazacées et Rehmanniacées, ne font pas partie de la classification phylogénétique APG III (2009)[4] et n'ont été officiellement validées qu'en 2011.
+En classification phylogénétique APG II (2003) la circonscription  des Phrymacées est incertaine : le genre le plus connu est Mimulus.
+Les Phrymacées font partie d'un clade de cinq familles : Mazaceae, Phrymaceae, Paulowniaceae, Orobanchaceae, Lamiaceae, dont deux, Mazacées et Rehmanniacées, ne font pas partie de la classification phylogénétique APG III (2009) et n'ont été officiellement validées qu'en 2011.
 La composition des Phrymacées et la délimitation des genres ont radicalement changé de 2002 à 2012. Auparavant ils étaient monotypiques avec Phryma leptostachya (en) comme seule espèce.
-En classification phylogénétique APG IV (2016)[5], les Mazaceae (genres Dodartia, Lancea (en) et Mazus) forment une famille distincte.
+En classification phylogénétique APG IV (2016), les Mazaceae (genres Dodartia, Lancea (en) et Mazus) forment une famille distincte.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Diplacus
 Elacholoma
 Erythranthe
@@ -594,7 +612,7 @@
 Phryma
 Thyridia
 Uvedalia
-Selon NCBI  (12 nov. 2015)[7] :
+Selon NCBI  (12 nov. 2015) :
 Berendtiella
 Diplacus
 Dodartia
@@ -610,7 +628,7 @@
 Phryma
 Thyridia
 Uvedalia
-Selon ITIS      (12 nov. 2015)[8] :
+Selon ITIS      (12 nov. 2015) :
 Diplacus
 Glossostigma
 Hemichaena
@@ -644,9 +662,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 Jul 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 Jul 2010) :
 genre Berendtiella
 Berendtiella rugosa
 genre Elacholoma
